--- a/REGULAR/CHO/MIRANDO, EDITH.xlsx
+++ b/REGULAR/CHO/MIRANDO, EDITH.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="436">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1338,6 +1338,9 @@
   </si>
   <si>
     <t>12/27-29/2023</t>
+  </si>
+  <si>
+    <t>1/10-12/2024</t>
   </si>
 </sst>
 </file>
@@ -2369,7 +2372,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A562" activePane="bottomLeft"/>
       <selection activeCell="A8" sqref="A8:K8"/>
-      <selection pane="bottomLeft" activeCell="K575" sqref="K575"/>
+      <selection pane="bottomLeft" activeCell="K577" sqref="K577"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2532,14 +2535,14 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>87.073000000000093</v>
+        <v>85.323000000000093</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13"/>
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>137.5</v>
+        <v>138.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -15208,15 +15211,17 @@
       <c r="B575" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C575" s="13"/>
+      <c r="C575" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D575" s="39">
         <v>3</v>
       </c>
       <c r="E575" s="9"/>
       <c r="F575" s="20"/>
-      <c r="G575" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G575" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H575" s="39"/>
       <c r="I575" s="9"/>
@@ -15247,9 +15252,13 @@
       <c r="A577" s="40">
         <v>45292</v>
       </c>
-      <c r="B577" s="20"/>
+      <c r="B577" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="C577" s="13"/>
-      <c r="D577" s="39"/>
+      <c r="D577" s="39">
+        <v>3</v>
+      </c>
       <c r="E577" s="9"/>
       <c r="F577" s="20"/>
       <c r="G577" s="13" t="str">
@@ -15259,7 +15268,9 @@
       <c r="H577" s="39"/>
       <c r="I577" s="9"/>
       <c r="J577" s="11"/>
-      <c r="K577" s="20"/>
+      <c r="K577" s="20" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="40">
@@ -16104,7 +16115,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>224.57300000000009</v>
+        <v>224.07300000000009</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>

--- a/REGULAR/CHO/MIRANDO, EDITH.xlsx
+++ b/REGULAR/CHO/MIRANDO, EDITH.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="436">
   <si>
     <t>PERIOD</t>
   </si>
@@ -2038,7 +2038,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K615" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K616" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2367,12 +2367,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K615"/>
+  <dimension ref="A2:K616"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A562" activePane="bottomLeft"/>
       <selection activeCell="A8" sqref="A8:K8"/>
-      <selection pane="bottomLeft" activeCell="K577" sqref="K577"/>
+      <selection pane="bottomLeft" activeCell="K578" sqref="K578"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2542,7 +2542,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>138.75</v>
+        <v>137.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -15273,10 +15273,10 @@
       </c>
     </row>
     <row r="578" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A578" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B578" s="20"/>
+      <c r="A578" s="40"/>
+      <c r="B578" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="C578" s="13"/>
       <c r="D578" s="39"/>
       <c r="E578" s="9"/>
@@ -15285,14 +15285,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H578" s="39"/>
+      <c r="H578" s="39">
+        <v>1</v>
+      </c>
       <c r="I578" s="9"/>
       <c r="J578" s="11"/>
-      <c r="K578" s="20"/>
+      <c r="K578" s="49">
+        <v>45306</v>
+      </c>
     </row>
     <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B579" s="20"/>
       <c r="C579" s="13"/>
@@ -15310,7 +15314,7 @@
     </row>
     <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B580" s="20"/>
       <c r="C580" s="13"/>
@@ -15328,7 +15332,7 @@
     </row>
     <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B581" s="20"/>
       <c r="C581" s="13"/>
@@ -15346,7 +15350,7 @@
     </row>
     <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B582" s="20"/>
       <c r="C582" s="13"/>
@@ -15364,7 +15368,7 @@
     </row>
     <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B583" s="20"/>
       <c r="C583" s="13"/>
@@ -15382,7 +15386,7 @@
     </row>
     <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B584" s="20"/>
       <c r="C584" s="13"/>
@@ -15400,7 +15404,7 @@
     </row>
     <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B585" s="20"/>
       <c r="C585" s="13"/>
@@ -15418,7 +15422,7 @@
     </row>
     <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B586" s="20"/>
       <c r="C586" s="13"/>
@@ -15436,7 +15440,7 @@
     </row>
     <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B587" s="20"/>
       <c r="C587" s="13"/>
@@ -15454,7 +15458,7 @@
     </row>
     <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B588" s="20"/>
       <c r="C588" s="13"/>
@@ -15472,7 +15476,7 @@
     </row>
     <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B589" s="20"/>
       <c r="C589" s="13"/>
@@ -15490,7 +15494,7 @@
     </row>
     <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B590" s="20"/>
       <c r="C590" s="13"/>
@@ -15508,7 +15512,7 @@
     </row>
     <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B591" s="20"/>
       <c r="C591" s="13"/>
@@ -15526,7 +15530,7 @@
     </row>
     <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B592" s="20"/>
       <c r="C592" s="13"/>
@@ -15544,7 +15548,7 @@
     </row>
     <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B593" s="20"/>
       <c r="C593" s="13"/>
@@ -15562,7 +15566,7 @@
     </row>
     <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B594" s="20"/>
       <c r="C594" s="13"/>
@@ -15580,7 +15584,7 @@
     </row>
     <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B595" s="20"/>
       <c r="C595" s="13"/>
@@ -15598,7 +15602,7 @@
     </row>
     <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B596" s="20"/>
       <c r="C596" s="13"/>
@@ -15616,7 +15620,7 @@
     </row>
     <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B597" s="20"/>
       <c r="C597" s="13"/>
@@ -15634,7 +15638,7 @@
     </row>
     <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B598" s="20"/>
       <c r="C598" s="13"/>
@@ -15652,7 +15656,7 @@
     </row>
     <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B599" s="20"/>
       <c r="C599" s="13"/>
@@ -15670,7 +15674,7 @@
     </row>
     <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B600" s="20"/>
       <c r="C600" s="13"/>
@@ -15688,7 +15692,7 @@
     </row>
     <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B601" s="20"/>
       <c r="C601" s="13"/>
@@ -15706,7 +15710,7 @@
     </row>
     <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B602" s="20"/>
       <c r="C602" s="13"/>
@@ -15724,7 +15728,7 @@
     </row>
     <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B603" s="20"/>
       <c r="C603" s="13"/>
@@ -15742,7 +15746,7 @@
     </row>
     <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B604" s="20"/>
       <c r="C604" s="13"/>
@@ -15760,7 +15764,7 @@
     </row>
     <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B605" s="20"/>
       <c r="C605" s="13"/>
@@ -15778,7 +15782,7 @@
     </row>
     <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B606" s="20"/>
       <c r="C606" s="13"/>
@@ -15796,7 +15800,7 @@
     </row>
     <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B607" s="20"/>
       <c r="C607" s="13"/>
@@ -15814,7 +15818,7 @@
     </row>
     <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="40">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B608" s="20"/>
       <c r="C608" s="13"/>
@@ -15832,7 +15836,7 @@
     </row>
     <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="40">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B609" s="20"/>
       <c r="C609" s="13"/>
@@ -15850,7 +15854,7 @@
     </row>
     <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="40">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B610" s="20"/>
       <c r="C610" s="13"/>
@@ -15868,7 +15872,7 @@
     </row>
     <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="40">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B611" s="20"/>
       <c r="C611" s="13"/>
@@ -15886,7 +15890,7 @@
     </row>
     <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="40">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B612" s="20"/>
       <c r="C612" s="13"/>
@@ -15903,7 +15907,9 @@
       <c r="K612" s="20"/>
     </row>
     <row r="613" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A613" s="40"/>
+      <c r="A613" s="40">
+        <v>46357</v>
+      </c>
       <c r="B613" s="20"/>
       <c r="C613" s="13"/>
       <c r="D613" s="39"/>
@@ -15935,20 +15941,36 @@
       <c r="K614" s="20"/>
     </row>
     <row r="615" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A615" s="41"/>
-      <c r="B615" s="15"/>
-      <c r="C615" s="42"/>
-      <c r="D615" s="43"/>
+      <c r="A615" s="40"/>
+      <c r="B615" s="20"/>
+      <c r="C615" s="13"/>
+      <c r="D615" s="39"/>
       <c r="E615" s="9"/>
-      <c r="F615" s="15"/>
-      <c r="G615" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H615" s="43"/>
+      <c r="F615" s="20"/>
+      <c r="G615" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H615" s="39"/>
       <c r="I615" s="9"/>
-      <c r="J615" s="12"/>
-      <c r="K615" s="15"/>
+      <c r="J615" s="11"/>
+      <c r="K615" s="20"/>
+    </row>
+    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A616" s="41"/>
+      <c r="B616" s="15"/>
+      <c r="C616" s="42"/>
+      <c r="D616" s="43"/>
+      <c r="E616" s="9"/>
+      <c r="F616" s="15"/>
+      <c r="G616" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H616" s="43"/>
+      <c r="I616" s="9"/>
+      <c r="J616" s="12"/>
+      <c r="K616" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -16115,7 +16137,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>224.07300000000009</v>
+        <v>223.07300000000009</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>

--- a/REGULAR/CHO/MIRANDO, EDITH.xlsx
+++ b/REGULAR/CHO/MIRANDO, EDITH.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="439">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1322,9 +1322,6 @@
     <t>TOTAL LEAVE BALANCE</t>
   </si>
   <si>
-    <t>8/1-4/2023</t>
-  </si>
-  <si>
     <t>12/28,29/2022</t>
   </si>
   <si>
@@ -1341,6 +1338,18 @@
   </si>
   <si>
     <t>1/10-12/2024</t>
+  </si>
+  <si>
+    <t>UT(0-0-2)</t>
+  </si>
+  <si>
+    <t>UT(0-0-1)</t>
+  </si>
+  <si>
+    <t>8/1-4/2023 (3,4,16)</t>
+  </si>
+  <si>
+    <t>A(1-0-0)</t>
   </si>
 </sst>
 </file>
@@ -2038,7 +2047,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K616" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K620" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2367,12 +2376,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K616"/>
+  <dimension ref="A2:K620"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A562" activePane="bottomLeft"/>
       <selection activeCell="A8" sqref="A8:K8"/>
-      <selection pane="bottomLeft" activeCell="K578" sqref="K578"/>
+      <selection pane="bottomLeft" activeCell="K569" sqref="K569"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2535,7 +2544,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>85.323000000000093</v>
+        <v>85.311000000000035</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13"/>
@@ -14644,7 +14653,7 @@
       <c r="I549" s="9"/>
       <c r="J549" s="11"/>
       <c r="K549" s="20" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="550" spans="1:11" x14ac:dyDescent="0.25">
@@ -14935,7 +14944,7 @@
       <c r="I562" s="9"/>
       <c r="J562" s="11"/>
       <c r="K562" s="20" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="563" spans="1:11" x14ac:dyDescent="0.25">
@@ -15067,37 +15076,39 @@
       </c>
     </row>
     <row r="569" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A569" s="40">
-        <v>45078</v>
-      </c>
-      <c r="B569" s="20"/>
-      <c r="C569" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D569" s="39"/>
+      <c r="A569" s="40"/>
+      <c r="B569" s="20" t="s">
+        <v>438</v>
+      </c>
+      <c r="C569" s="13"/>
+      <c r="D569" s="39">
+        <v>1</v>
+      </c>
       <c r="E569" s="9"/>
       <c r="F569" s="20"/>
-      <c r="G569" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G569" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H569" s="39"/>
       <c r="I569" s="9"/>
       <c r="J569" s="11"/>
-      <c r="K569" s="20"/>
+      <c r="K569" s="49">
+        <v>45065</v>
+      </c>
     </row>
     <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="40">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B570" s="20" t="s">
-        <v>66</v>
+        <v>435</v>
       </c>
       <c r="C570" s="13">
         <v>1.25</v>
       </c>
       <c r="D570" s="39">
-        <v>4</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="E570" s="9"/>
       <c r="F570" s="20"/>
@@ -15108,41 +15119,41 @@
       <c r="H570" s="39"/>
       <c r="I570" s="9"/>
       <c r="J570" s="11"/>
-      <c r="K570" s="20" t="s">
-        <v>429</v>
-      </c>
+      <c r="K570" s="20"/>
     </row>
     <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B571" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C571" s="13">
         <v>1.25</v>
       </c>
-      <c r="D571" s="39"/>
+      <c r="D571" s="39">
+        <v>3</v>
+      </c>
       <c r="E571" s="9"/>
       <c r="F571" s="20"/>
       <c r="G571" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H571" s="39">
-        <v>1</v>
-      </c>
+      <c r="H571" s="39"/>
       <c r="I571" s="9"/>
       <c r="J571" s="11"/>
-      <c r="K571" s="49">
-        <v>45156</v>
+      <c r="K571" s="20" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40">
-        <v>45170</v>
-      </c>
-      <c r="B572" s="20"/>
+        <v>45139</v>
+      </c>
+      <c r="B572" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="C572" s="13">
         <v>1.25</v>
       </c>
@@ -15153,40 +15164,38 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H572" s="39"/>
+      <c r="H572" s="39">
+        <v>1</v>
+      </c>
       <c r="I572" s="9"/>
       <c r="J572" s="11"/>
-      <c r="K572" s="20"/>
+      <c r="K572" s="49">
+        <v>45156</v>
+      </c>
     </row>
     <row r="573" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A573" s="40">
-        <v>45200</v>
-      </c>
+      <c r="A573" s="40"/>
       <c r="B573" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C573" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D573" s="39"/>
+        <v>436</v>
+      </c>
+      <c r="C573" s="13"/>
+      <c r="D573" s="39">
+        <v>2E-3</v>
+      </c>
       <c r="E573" s="9"/>
       <c r="F573" s="20"/>
-      <c r="G573" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H573" s="39">
-        <v>2</v>
-      </c>
+      <c r="G573" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H573" s="39"/>
       <c r="I573" s="9"/>
       <c r="J573" s="11"/>
-      <c r="K573" s="20" t="s">
-        <v>433</v>
-      </c>
+      <c r="K573" s="49"/>
     </row>
     <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="40">
-        <v>45231</v>
+        <v>45170</v>
       </c>
       <c r="B574" s="20"/>
       <c r="C574" s="13">
@@ -15206,37 +15215,39 @@
     </row>
     <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="40">
-        <v>45261</v>
+        <v>45200</v>
       </c>
       <c r="B575" s="20" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C575" s="13">
         <v>1.25</v>
       </c>
-      <c r="D575" s="39">
-        <v>3</v>
-      </c>
+      <c r="D575" s="39"/>
       <c r="E575" s="9"/>
       <c r="F575" s="20"/>
       <c r="G575" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H575" s="39"/>
+      <c r="H575" s="39">
+        <v>2</v>
+      </c>
       <c r="I575" s="9"/>
       <c r="J575" s="11"/>
       <c r="K575" s="20" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="576" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A576" s="48" t="s">
-        <v>432</v>
-      </c>
-      <c r="B576" s="20"/>
+      <c r="A576" s="40"/>
+      <c r="B576" s="20" t="s">
+        <v>436</v>
+      </c>
       <c r="C576" s="13"/>
-      <c r="D576" s="39"/>
+      <c r="D576" s="39">
+        <v>2E-3</v>
+      </c>
       <c r="E576" s="9"/>
       <c r="F576" s="20"/>
       <c r="G576" s="13" t="str">
@@ -15250,57 +15261,59 @@
     </row>
     <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="40">
-        <v>45292</v>
-      </c>
-      <c r="B577" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C577" s="13"/>
-      <c r="D577" s="39">
-        <v>3</v>
-      </c>
+        <v>45231</v>
+      </c>
+      <c r="B577" s="20"/>
+      <c r="C577" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D577" s="39"/>
       <c r="E577" s="9"/>
       <c r="F577" s="20"/>
-      <c r="G577" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G577" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H577" s="39"/>
       <c r="I577" s="9"/>
       <c r="J577" s="11"/>
-      <c r="K577" s="20" t="s">
-        <v>435</v>
-      </c>
+      <c r="K577" s="20"/>
     </row>
     <row r="578" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A578" s="40"/>
+      <c r="A578" s="40">
+        <v>45261</v>
+      </c>
       <c r="B578" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C578" s="13"/>
-      <c r="D578" s="39"/>
+        <v>49</v>
+      </c>
+      <c r="C578" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D578" s="39">
+        <v>3</v>
+      </c>
       <c r="E578" s="9"/>
       <c r="F578" s="20"/>
-      <c r="G578" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H578" s="39">
-        <v>1</v>
-      </c>
+      <c r="G578" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H578" s="39"/>
       <c r="I578" s="9"/>
       <c r="J578" s="11"/>
-      <c r="K578" s="49">
-        <v>45306</v>
+      <c r="K578" s="20" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="579" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A579" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B579" s="20"/>
+      <c r="A579" s="40"/>
+      <c r="B579" s="20" t="s">
+        <v>435</v>
+      </c>
       <c r="C579" s="13"/>
-      <c r="D579" s="39"/>
+      <c r="D579" s="39">
+        <v>4.0000000000000001E-3</v>
+      </c>
       <c r="E579" s="9"/>
       <c r="F579" s="20"/>
       <c r="G579" s="13" t="str">
@@ -15313,8 +15326,8 @@
       <c r="K579" s="20"/>
     </row>
     <row r="580" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A580" s="40">
-        <v>45352</v>
+      <c r="A580" s="48" t="s">
+        <v>431</v>
       </c>
       <c r="B580" s="20"/>
       <c r="C580" s="13"/>
@@ -15332,11 +15345,15 @@
     </row>
     <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="40">
-        <v>45383</v>
-      </c>
-      <c r="B581" s="20"/>
+        <v>45292</v>
+      </c>
+      <c r="B581" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="C581" s="13"/>
-      <c r="D581" s="39"/>
+      <c r="D581" s="39">
+        <v>3</v>
+      </c>
       <c r="E581" s="9"/>
       <c r="F581" s="20"/>
       <c r="G581" s="13" t="str">
@@ -15346,13 +15363,15 @@
       <c r="H581" s="39"/>
       <c r="I581" s="9"/>
       <c r="J581" s="11"/>
-      <c r="K581" s="20"/>
+      <c r="K581" s="20" t="s">
+        <v>434</v>
+      </c>
     </row>
     <row r="582" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A582" s="40">
-        <v>45413</v>
-      </c>
-      <c r="B582" s="20"/>
+      <c r="A582" s="40"/>
+      <c r="B582" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="C582" s="13"/>
       <c r="D582" s="39"/>
       <c r="E582" s="9"/>
@@ -15361,14 +15380,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H582" s="39"/>
+      <c r="H582" s="39">
+        <v>1</v>
+      </c>
       <c r="I582" s="9"/>
       <c r="J582" s="11"/>
-      <c r="K582" s="20"/>
+      <c r="K582" s="49">
+        <v>45306</v>
+      </c>
     </row>
     <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="40">
-        <v>45444</v>
+        <v>45323</v>
       </c>
       <c r="B583" s="20"/>
       <c r="C583" s="13"/>
@@ -15386,7 +15409,7 @@
     </row>
     <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="40">
-        <v>45474</v>
+        <v>45352</v>
       </c>
       <c r="B584" s="20"/>
       <c r="C584" s="13"/>
@@ -15404,7 +15427,7 @@
     </row>
     <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="40">
-        <v>45505</v>
+        <v>45383</v>
       </c>
       <c r="B585" s="20"/>
       <c r="C585" s="13"/>
@@ -15422,7 +15445,7 @@
     </row>
     <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="40">
-        <v>45536</v>
+        <v>45413</v>
       </c>
       <c r="B586" s="20"/>
       <c r="C586" s="13"/>
@@ -15440,7 +15463,7 @@
     </row>
     <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="40">
-        <v>45566</v>
+        <v>45444</v>
       </c>
       <c r="B587" s="20"/>
       <c r="C587" s="13"/>
@@ -15458,7 +15481,7 @@
     </row>
     <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="40">
-        <v>45597</v>
+        <v>45474</v>
       </c>
       <c r="B588" s="20"/>
       <c r="C588" s="13"/>
@@ -15476,7 +15499,7 @@
     </row>
     <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="40">
-        <v>45627</v>
+        <v>45505</v>
       </c>
       <c r="B589" s="20"/>
       <c r="C589" s="13"/>
@@ -15494,7 +15517,7 @@
     </row>
     <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="40">
-        <v>45658</v>
+        <v>45536</v>
       </c>
       <c r="B590" s="20"/>
       <c r="C590" s="13"/>
@@ -15512,7 +15535,7 @@
     </row>
     <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="40">
-        <v>45689</v>
+        <v>45566</v>
       </c>
       <c r="B591" s="20"/>
       <c r="C591" s="13"/>
@@ -15530,7 +15553,7 @@
     </row>
     <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="40">
-        <v>45717</v>
+        <v>45597</v>
       </c>
       <c r="B592" s="20"/>
       <c r="C592" s="13"/>
@@ -15548,7 +15571,7 @@
     </row>
     <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="40">
-        <v>45748</v>
+        <v>45627</v>
       </c>
       <c r="B593" s="20"/>
       <c r="C593" s="13"/>
@@ -15566,7 +15589,7 @@
     </row>
     <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="40">
-        <v>45778</v>
+        <v>45658</v>
       </c>
       <c r="B594" s="20"/>
       <c r="C594" s="13"/>
@@ -15584,7 +15607,7 @@
     </row>
     <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="40">
-        <v>45809</v>
+        <v>45689</v>
       </c>
       <c r="B595" s="20"/>
       <c r="C595" s="13"/>
@@ -15602,7 +15625,7 @@
     </row>
     <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="40">
-        <v>45839</v>
+        <v>45717</v>
       </c>
       <c r="B596" s="20"/>
       <c r="C596" s="13"/>
@@ -15620,7 +15643,7 @@
     </row>
     <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="40">
-        <v>45870</v>
+        <v>45748</v>
       </c>
       <c r="B597" s="20"/>
       <c r="C597" s="13"/>
@@ -15638,7 +15661,7 @@
     </row>
     <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="40">
-        <v>45901</v>
+        <v>45778</v>
       </c>
       <c r="B598" s="20"/>
       <c r="C598" s="13"/>
@@ -15656,7 +15679,7 @@
     </row>
     <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="40">
-        <v>45931</v>
+        <v>45809</v>
       </c>
       <c r="B599" s="20"/>
       <c r="C599" s="13"/>
@@ -15674,7 +15697,7 @@
     </row>
     <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="40">
-        <v>45962</v>
+        <v>45839</v>
       </c>
       <c r="B600" s="20"/>
       <c r="C600" s="13"/>
@@ -15692,7 +15715,7 @@
     </row>
     <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="40">
-        <v>45992</v>
+        <v>45870</v>
       </c>
       <c r="B601" s="20"/>
       <c r="C601" s="13"/>
@@ -15710,7 +15733,7 @@
     </row>
     <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="40">
-        <v>46023</v>
+        <v>45901</v>
       </c>
       <c r="B602" s="20"/>
       <c r="C602" s="13"/>
@@ -15728,7 +15751,7 @@
     </row>
     <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="40">
-        <v>46054</v>
+        <v>45931</v>
       </c>
       <c r="B603" s="20"/>
       <c r="C603" s="13"/>
@@ -15746,7 +15769,7 @@
     </row>
     <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="40">
-        <v>46082</v>
+        <v>45962</v>
       </c>
       <c r="B604" s="20"/>
       <c r="C604" s="13"/>
@@ -15764,7 +15787,7 @@
     </row>
     <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="40">
-        <v>46113</v>
+        <v>45992</v>
       </c>
       <c r="B605" s="20"/>
       <c r="C605" s="13"/>
@@ -15782,7 +15805,7 @@
     </row>
     <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="40">
-        <v>46143</v>
+        <v>46023</v>
       </c>
       <c r="B606" s="20"/>
       <c r="C606" s="13"/>
@@ -15800,7 +15823,7 @@
     </row>
     <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="40">
-        <v>46174</v>
+        <v>46054</v>
       </c>
       <c r="B607" s="20"/>
       <c r="C607" s="13"/>
@@ -15818,7 +15841,7 @@
     </row>
     <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="40">
-        <v>46204</v>
+        <v>46082</v>
       </c>
       <c r="B608" s="20"/>
       <c r="C608" s="13"/>
@@ -15836,7 +15859,7 @@
     </row>
     <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="40">
-        <v>46235</v>
+        <v>46113</v>
       </c>
       <c r="B609" s="20"/>
       <c r="C609" s="13"/>
@@ -15854,7 +15877,7 @@
     </row>
     <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="40">
-        <v>46266</v>
+        <v>46143</v>
       </c>
       <c r="B610" s="20"/>
       <c r="C610" s="13"/>
@@ -15872,7 +15895,7 @@
     </row>
     <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="40">
-        <v>46296</v>
+        <v>46174</v>
       </c>
       <c r="B611" s="20"/>
       <c r="C611" s="13"/>
@@ -15890,7 +15913,7 @@
     </row>
     <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="40">
-        <v>46327</v>
+        <v>46204</v>
       </c>
       <c r="B612" s="20"/>
       <c r="C612" s="13"/>
@@ -15908,7 +15931,7 @@
     </row>
     <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" s="40">
-        <v>46357</v>
+        <v>46235</v>
       </c>
       <c r="B613" s="20"/>
       <c r="C613" s="13"/>
@@ -15925,7 +15948,9 @@
       <c r="K613" s="20"/>
     </row>
     <row r="614" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A614" s="40"/>
+      <c r="A614" s="40">
+        <v>46266</v>
+      </c>
       <c r="B614" s="20"/>
       <c r="C614" s="13"/>
       <c r="D614" s="39"/>
@@ -15941,7 +15966,9 @@
       <c r="K614" s="20"/>
     </row>
     <row r="615" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A615" s="40"/>
+      <c r="A615" s="40">
+        <v>46296</v>
+      </c>
       <c r="B615" s="20"/>
       <c r="C615" s="13"/>
       <c r="D615" s="39"/>
@@ -15957,20 +15984,88 @@
       <c r="K615" s="20"/>
     </row>
     <row r="616" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A616" s="41"/>
-      <c r="B616" s="15"/>
-      <c r="C616" s="42"/>
-      <c r="D616" s="43"/>
+      <c r="A616" s="40">
+        <v>46327</v>
+      </c>
+      <c r="B616" s="20"/>
+      <c r="C616" s="13"/>
+      <c r="D616" s="39"/>
       <c r="E616" s="9"/>
-      <c r="F616" s="15"/>
-      <c r="G616" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H616" s="43"/>
+      <c r="F616" s="20"/>
+      <c r="G616" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H616" s="39"/>
       <c r="I616" s="9"/>
-      <c r="J616" s="12"/>
-      <c r="K616" s="15"/>
+      <c r="J616" s="11"/>
+      <c r="K616" s="20"/>
+    </row>
+    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A617" s="40">
+        <v>46357</v>
+      </c>
+      <c r="B617" s="20"/>
+      <c r="C617" s="13"/>
+      <c r="D617" s="39"/>
+      <c r="E617" s="9"/>
+      <c r="F617" s="20"/>
+      <c r="G617" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H617" s="39"/>
+      <c r="I617" s="9"/>
+      <c r="J617" s="11"/>
+      <c r="K617" s="20"/>
+    </row>
+    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A618" s="40"/>
+      <c r="B618" s="20"/>
+      <c r="C618" s="13"/>
+      <c r="D618" s="39"/>
+      <c r="E618" s="9"/>
+      <c r="F618" s="20"/>
+      <c r="G618" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H618" s="39"/>
+      <c r="I618" s="9"/>
+      <c r="J618" s="11"/>
+      <c r="K618" s="20"/>
+    </row>
+    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A619" s="40"/>
+      <c r="B619" s="20"/>
+      <c r="C619" s="13"/>
+      <c r="D619" s="39"/>
+      <c r="E619" s="9"/>
+      <c r="F619" s="20"/>
+      <c r="G619" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H619" s="39"/>
+      <c r="I619" s="9"/>
+      <c r="J619" s="11"/>
+      <c r="K619" s="20"/>
+    </row>
+    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A620" s="41"/>
+      <c r="B620" s="15"/>
+      <c r="C620" s="42"/>
+      <c r="D620" s="43"/>
+      <c r="E620" s="9"/>
+      <c r="F620" s="15"/>
+      <c r="G620" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H620" s="43"/>
+      <c r="I620" s="9"/>
+      <c r="J620" s="12"/>
+      <c r="K620" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -16084,11 +16179,11 @@
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="11">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>2.9000000000000012E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="J3" s="47"/>
       <c r="K3" s="35">
@@ -16137,7 +16232,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>223.07300000000009</v>
+        <v>223.06100000000004</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>

--- a/REGULAR/CHO/MIRANDO, EDITH.xlsx
+++ b/REGULAR/CHO/MIRANDO, EDITH.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="439">
   <si>
     <t>PERIOD</t>
   </si>
@@ -2047,7 +2047,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K620" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K622" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2376,12 +2376,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K620"/>
+  <dimension ref="A2:K622"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A562" activePane="bottomLeft"/>
       <selection activeCell="A8" sqref="A8:K8"/>
-      <selection pane="bottomLeft" activeCell="K569" sqref="K569"/>
+      <selection pane="bottomLeft" activeCell="F573" sqref="F573"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2544,7 +2544,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>85.311000000000035</v>
+        <v>84.295000000000073</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13"/>
@@ -15010,19 +15010,19 @@
       </c>
     </row>
     <row r="566" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A566" s="40">
-        <v>44986</v>
-      </c>
-      <c r="B566" s="20"/>
-      <c r="C566" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D566" s="39"/>
+      <c r="A566" s="40"/>
+      <c r="B566" s="20" t="s">
+        <v>343</v>
+      </c>
+      <c r="C566" s="13"/>
+      <c r="D566" s="39">
+        <v>6.0000000000000001E-3</v>
+      </c>
       <c r="E566" s="9"/>
       <c r="F566" s="20"/>
-      <c r="G566" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G566" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H566" s="39"/>
       <c r="I566" s="9"/>
@@ -15031,13 +15031,17 @@
     </row>
     <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40">
-        <v>45017</v>
-      </c>
-      <c r="B567" s="20"/>
+        <v>44986</v>
+      </c>
+      <c r="B567" s="20" t="s">
+        <v>438</v>
+      </c>
       <c r="C567" s="13">
         <v>1.25</v>
       </c>
-      <c r="D567" s="39"/>
+      <c r="D567" s="39">
+        <v>1</v>
+      </c>
       <c r="E567" s="9"/>
       <c r="F567" s="20"/>
       <c r="G567" s="13">
@@ -15047,68 +15051,62 @@
       <c r="H567" s="39"/>
       <c r="I567" s="9"/>
       <c r="J567" s="11"/>
-      <c r="K567" s="20"/>
+      <c r="K567" s="49">
+        <v>45016</v>
+      </c>
     </row>
     <row r="568" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A568" s="40">
-        <v>45047</v>
-      </c>
+      <c r="A568" s="40"/>
       <c r="B568" s="20" t="s">
-        <v>220</v>
-      </c>
-      <c r="C568" s="13">
-        <v>1.25</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="C568" s="13"/>
       <c r="D568" s="39">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="E568" s="9"/>
       <c r="F568" s="20"/>
-      <c r="G568" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G568" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H568" s="39"/>
       <c r="I568" s="9"/>
       <c r="J568" s="11"/>
-      <c r="K568" s="49">
-        <v>45075</v>
-      </c>
+      <c r="K568" s="49"/>
     </row>
     <row r="569" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A569" s="40"/>
-      <c r="B569" s="20" t="s">
-        <v>438</v>
-      </c>
-      <c r="C569" s="13"/>
-      <c r="D569" s="39">
-        <v>1</v>
-      </c>
+      <c r="A569" s="40">
+        <v>45017</v>
+      </c>
+      <c r="B569" s="20"/>
+      <c r="C569" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D569" s="39"/>
       <c r="E569" s="9"/>
       <c r="F569" s="20"/>
-      <c r="G569" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G569" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H569" s="39"/>
       <c r="I569" s="9"/>
       <c r="J569" s="11"/>
-      <c r="K569" s="49">
-        <v>45065</v>
-      </c>
+      <c r="K569" s="20"/>
     </row>
     <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="40">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B570" s="20" t="s">
-        <v>435</v>
+        <v>220</v>
       </c>
       <c r="C570" s="13">
         <v>1.25</v>
       </c>
       <c r="D570" s="39">
-        <v>4.0000000000000001E-3</v>
+        <v>1</v>
       </c>
       <c r="E570" s="9"/>
       <c r="F570" s="20"/>
@@ -15119,85 +15117,89 @@
       <c r="H570" s="39"/>
       <c r="I570" s="9"/>
       <c r="J570" s="11"/>
-      <c r="K570" s="20"/>
+      <c r="K570" s="49">
+        <v>45075</v>
+      </c>
     </row>
     <row r="571" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A571" s="40">
-        <v>45108</v>
-      </c>
+      <c r="A571" s="40"/>
       <c r="B571" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C571" s="13">
-        <v>1.25</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="C571" s="13"/>
       <c r="D571" s="39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E571" s="9"/>
       <c r="F571" s="20"/>
-      <c r="G571" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G571" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H571" s="39"/>
       <c r="I571" s="9"/>
       <c r="J571" s="11"/>
-      <c r="K571" s="20" t="s">
-        <v>437</v>
+      <c r="K571" s="49">
+        <v>45065</v>
       </c>
     </row>
     <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40">
-        <v>45139</v>
+        <v>45078</v>
       </c>
       <c r="B572" s="20" t="s">
-        <v>50</v>
+        <v>435</v>
       </c>
       <c r="C572" s="13">
         <v>1.25</v>
       </c>
-      <c r="D572" s="39"/>
+      <c r="D572" s="39">
+        <v>4.0000000000000001E-3</v>
+      </c>
       <c r="E572" s="9"/>
       <c r="F572" s="20"/>
       <c r="G572" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H572" s="39">
-        <v>1</v>
-      </c>
+      <c r="H572" s="39"/>
       <c r="I572" s="9"/>
       <c r="J572" s="11"/>
-      <c r="K572" s="49">
-        <v>45156</v>
-      </c>
+      <c r="K572" s="20"/>
     </row>
     <row r="573" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A573" s="40"/>
+      <c r="A573" s="40">
+        <v>45108</v>
+      </c>
       <c r="B573" s="20" t="s">
-        <v>436</v>
-      </c>
-      <c r="C573" s="13"/>
+        <v>49</v>
+      </c>
+      <c r="C573" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D573" s="39">
-        <v>2E-3</v>
+        <v>3</v>
       </c>
       <c r="E573" s="9"/>
       <c r="F573" s="20"/>
-      <c r="G573" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G573" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H573" s="39"/>
       <c r="I573" s="9"/>
       <c r="J573" s="11"/>
-      <c r="K573" s="49"/>
+      <c r="K573" s="20" t="s">
+        <v>437</v>
+      </c>
     </row>
     <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="40">
-        <v>45170</v>
-      </c>
-      <c r="B574" s="20"/>
+        <v>45139</v>
+      </c>
+      <c r="B574" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="C574" s="13">
         <v>1.25</v>
       </c>
@@ -15208,51 +15210,49 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H574" s="39"/>
+      <c r="H574" s="39">
+        <v>1</v>
+      </c>
       <c r="I574" s="9"/>
       <c r="J574" s="11"/>
-      <c r="K574" s="20"/>
+      <c r="K574" s="49">
+        <v>45156</v>
+      </c>
     </row>
     <row r="575" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A575" s="40">
-        <v>45200</v>
-      </c>
+      <c r="A575" s="40"/>
       <c r="B575" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C575" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D575" s="39"/>
+        <v>436</v>
+      </c>
+      <c r="C575" s="13"/>
+      <c r="D575" s="39">
+        <v>2E-3</v>
+      </c>
       <c r="E575" s="9"/>
       <c r="F575" s="20"/>
-      <c r="G575" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H575" s="39">
-        <v>2</v>
-      </c>
+      <c r="G575" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H575" s="39"/>
       <c r="I575" s="9"/>
       <c r="J575" s="11"/>
-      <c r="K575" s="20" t="s">
-        <v>432</v>
-      </c>
+      <c r="K575" s="49"/>
     </row>
     <row r="576" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A576" s="40"/>
-      <c r="B576" s="20" t="s">
-        <v>436</v>
-      </c>
-      <c r="C576" s="13"/>
-      <c r="D576" s="39">
-        <v>2E-3</v>
-      </c>
+      <c r="A576" s="40">
+        <v>45170</v>
+      </c>
+      <c r="B576" s="20"/>
+      <c r="C576" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D576" s="39"/>
       <c r="E576" s="9"/>
       <c r="F576" s="20"/>
-      <c r="G576" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G576" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H576" s="39"/>
       <c r="I576" s="9"/>
@@ -15261,9 +15261,11 @@
     </row>
     <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="40">
-        <v>45231</v>
-      </c>
-      <c r="B577" s="20"/>
+        <v>45200</v>
+      </c>
+      <c r="B577" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C577" s="13">
         <v>1.25</v>
       </c>
@@ -15274,51 +15276,49 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H577" s="39"/>
+      <c r="H577" s="39">
+        <v>2</v>
+      </c>
       <c r="I577" s="9"/>
       <c r="J577" s="11"/>
-      <c r="K577" s="20"/>
+      <c r="K577" s="20" t="s">
+        <v>432</v>
+      </c>
     </row>
     <row r="578" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A578" s="40">
-        <v>45261</v>
-      </c>
+      <c r="A578" s="40"/>
       <c r="B578" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C578" s="13">
-        <v>1.25</v>
-      </c>
+        <v>436</v>
+      </c>
+      <c r="C578" s="13"/>
       <c r="D578" s="39">
-        <v>3</v>
+        <v>2E-3</v>
       </c>
       <c r="E578" s="9"/>
       <c r="F578" s="20"/>
-      <c r="G578" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G578" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H578" s="39"/>
       <c r="I578" s="9"/>
       <c r="J578" s="11"/>
-      <c r="K578" s="20" t="s">
-        <v>433</v>
-      </c>
+      <c r="K578" s="20"/>
     </row>
     <row r="579" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A579" s="40"/>
-      <c r="B579" s="20" t="s">
-        <v>435</v>
-      </c>
-      <c r="C579" s="13"/>
-      <c r="D579" s="39">
-        <v>4.0000000000000001E-3</v>
-      </c>
+      <c r="A579" s="40">
+        <v>45231</v>
+      </c>
+      <c r="B579" s="20"/>
+      <c r="C579" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D579" s="39"/>
       <c r="E579" s="9"/>
       <c r="F579" s="20"/>
-      <c r="G579" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G579" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H579" s="39"/>
       <c r="I579" s="9"/>
@@ -15326,33 +15326,39 @@
       <c r="K579" s="20"/>
     </row>
     <row r="580" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A580" s="48" t="s">
-        <v>431</v>
-      </c>
-      <c r="B580" s="20"/>
-      <c r="C580" s="13"/>
-      <c r="D580" s="39"/>
+      <c r="A580" s="40">
+        <v>45261</v>
+      </c>
+      <c r="B580" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C580" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D580" s="39">
+        <v>3</v>
+      </c>
       <c r="E580" s="9"/>
       <c r="F580" s="20"/>
-      <c r="G580" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G580" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H580" s="39"/>
       <c r="I580" s="9"/>
       <c r="J580" s="11"/>
-      <c r="K580" s="20"/>
+      <c r="K580" s="20" t="s">
+        <v>433</v>
+      </c>
     </row>
     <row r="581" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A581" s="40">
-        <v>45292</v>
-      </c>
+      <c r="A581" s="40"/>
       <c r="B581" s="20" t="s">
-        <v>49</v>
+        <v>435</v>
       </c>
       <c r="C581" s="13"/>
       <c r="D581" s="39">
-        <v>3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="E581" s="9"/>
       <c r="F581" s="20"/>
@@ -15363,15 +15369,13 @@
       <c r="H581" s="39"/>
       <c r="I581" s="9"/>
       <c r="J581" s="11"/>
-      <c r="K581" s="20" t="s">
-        <v>434</v>
-      </c>
+      <c r="K581" s="20"/>
     </row>
     <row r="582" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A582" s="40"/>
-      <c r="B582" s="20" t="s">
-        <v>50</v>
-      </c>
+      <c r="A582" s="48" t="s">
+        <v>431</v>
+      </c>
+      <c r="B582" s="20"/>
       <c r="C582" s="13"/>
       <c r="D582" s="39"/>
       <c r="E582" s="9"/>
@@ -15380,22 +15384,22 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H582" s="39">
-        <v>1</v>
-      </c>
+      <c r="H582" s="39"/>
       <c r="I582" s="9"/>
       <c r="J582" s="11"/>
-      <c r="K582" s="49">
-        <v>45306</v>
-      </c>
+      <c r="K582" s="20"/>
     </row>
     <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B583" s="20"/>
+        <v>45292</v>
+      </c>
+      <c r="B583" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="C583" s="13"/>
-      <c r="D583" s="39"/>
+      <c r="D583" s="39">
+        <v>3</v>
+      </c>
       <c r="E583" s="9"/>
       <c r="F583" s="20"/>
       <c r="G583" s="13" t="str">
@@ -15405,13 +15409,15 @@
       <c r="H583" s="39"/>
       <c r="I583" s="9"/>
       <c r="J583" s="11"/>
-      <c r="K583" s="20"/>
+      <c r="K583" s="20" t="s">
+        <v>434</v>
+      </c>
     </row>
     <row r="584" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A584" s="40">
-        <v>45352</v>
-      </c>
-      <c r="B584" s="20"/>
+      <c r="A584" s="40"/>
+      <c r="B584" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="C584" s="13"/>
       <c r="D584" s="39"/>
       <c r="E584" s="9"/>
@@ -15420,14 +15426,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H584" s="39"/>
+      <c r="H584" s="39">
+        <v>1</v>
+      </c>
       <c r="I584" s="9"/>
       <c r="J584" s="11"/>
-      <c r="K584" s="20"/>
+      <c r="K584" s="49">
+        <v>45306</v>
+      </c>
     </row>
     <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="40">
-        <v>45383</v>
+        <v>45323</v>
       </c>
       <c r="B585" s="20"/>
       <c r="C585" s="13"/>
@@ -15445,7 +15455,7 @@
     </row>
     <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="40">
-        <v>45413</v>
+        <v>45352</v>
       </c>
       <c r="B586" s="20"/>
       <c r="C586" s="13"/>
@@ -15463,7 +15473,7 @@
     </row>
     <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="40">
-        <v>45444</v>
+        <v>45383</v>
       </c>
       <c r="B587" s="20"/>
       <c r="C587" s="13"/>
@@ -15481,7 +15491,7 @@
     </row>
     <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="40">
-        <v>45474</v>
+        <v>45413</v>
       </c>
       <c r="B588" s="20"/>
       <c r="C588" s="13"/>
@@ -15499,7 +15509,7 @@
     </row>
     <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="40">
-        <v>45505</v>
+        <v>45444</v>
       </c>
       <c r="B589" s="20"/>
       <c r="C589" s="13"/>
@@ -15517,7 +15527,7 @@
     </row>
     <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="40">
-        <v>45536</v>
+        <v>45474</v>
       </c>
       <c r="B590" s="20"/>
       <c r="C590" s="13"/>
@@ -15535,7 +15545,7 @@
     </row>
     <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="40">
-        <v>45566</v>
+        <v>45505</v>
       </c>
       <c r="B591" s="20"/>
       <c r="C591" s="13"/>
@@ -15553,7 +15563,7 @@
     </row>
     <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="40">
-        <v>45597</v>
+        <v>45536</v>
       </c>
       <c r="B592" s="20"/>
       <c r="C592" s="13"/>
@@ -15571,7 +15581,7 @@
     </row>
     <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="40">
-        <v>45627</v>
+        <v>45566</v>
       </c>
       <c r="B593" s="20"/>
       <c r="C593" s="13"/>
@@ -15589,7 +15599,7 @@
     </row>
     <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="40">
-        <v>45658</v>
+        <v>45597</v>
       </c>
       <c r="B594" s="20"/>
       <c r="C594" s="13"/>
@@ -15607,7 +15617,7 @@
     </row>
     <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="40">
-        <v>45689</v>
+        <v>45627</v>
       </c>
       <c r="B595" s="20"/>
       <c r="C595" s="13"/>
@@ -15625,7 +15635,7 @@
     </row>
     <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="40">
-        <v>45717</v>
+        <v>45658</v>
       </c>
       <c r="B596" s="20"/>
       <c r="C596" s="13"/>
@@ -15643,7 +15653,7 @@
     </row>
     <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="40">
-        <v>45748</v>
+        <v>45689</v>
       </c>
       <c r="B597" s="20"/>
       <c r="C597" s="13"/>
@@ -15661,7 +15671,7 @@
     </row>
     <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="40">
-        <v>45778</v>
+        <v>45717</v>
       </c>
       <c r="B598" s="20"/>
       <c r="C598" s="13"/>
@@ -15679,7 +15689,7 @@
     </row>
     <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="40">
-        <v>45809</v>
+        <v>45748</v>
       </c>
       <c r="B599" s="20"/>
       <c r="C599" s="13"/>
@@ -15697,7 +15707,7 @@
     </row>
     <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="40">
-        <v>45839</v>
+        <v>45778</v>
       </c>
       <c r="B600" s="20"/>
       <c r="C600" s="13"/>
@@ -15715,7 +15725,7 @@
     </row>
     <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="40">
-        <v>45870</v>
+        <v>45809</v>
       </c>
       <c r="B601" s="20"/>
       <c r="C601" s="13"/>
@@ -15733,7 +15743,7 @@
     </row>
     <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="40">
-        <v>45901</v>
+        <v>45839</v>
       </c>
       <c r="B602" s="20"/>
       <c r="C602" s="13"/>
@@ -15751,7 +15761,7 @@
     </row>
     <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="40">
-        <v>45931</v>
+        <v>45870</v>
       </c>
       <c r="B603" s="20"/>
       <c r="C603" s="13"/>
@@ -15769,7 +15779,7 @@
     </row>
     <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="40">
-        <v>45962</v>
+        <v>45901</v>
       </c>
       <c r="B604" s="20"/>
       <c r="C604" s="13"/>
@@ -15787,7 +15797,7 @@
     </row>
     <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="40">
-        <v>45992</v>
+        <v>45931</v>
       </c>
       <c r="B605" s="20"/>
       <c r="C605" s="13"/>
@@ -15805,7 +15815,7 @@
     </row>
     <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="40">
-        <v>46023</v>
+        <v>45962</v>
       </c>
       <c r="B606" s="20"/>
       <c r="C606" s="13"/>
@@ -15823,7 +15833,7 @@
     </row>
     <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="40">
-        <v>46054</v>
+        <v>45992</v>
       </c>
       <c r="B607" s="20"/>
       <c r="C607" s="13"/>
@@ -15841,7 +15851,7 @@
     </row>
     <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="40">
-        <v>46082</v>
+        <v>46023</v>
       </c>
       <c r="B608" s="20"/>
       <c r="C608" s="13"/>
@@ -15859,7 +15869,7 @@
     </row>
     <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="40">
-        <v>46113</v>
+        <v>46054</v>
       </c>
       <c r="B609" s="20"/>
       <c r="C609" s="13"/>
@@ -15877,7 +15887,7 @@
     </row>
     <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="40">
-        <v>46143</v>
+        <v>46082</v>
       </c>
       <c r="B610" s="20"/>
       <c r="C610" s="13"/>
@@ -15895,7 +15905,7 @@
     </row>
     <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="40">
-        <v>46174</v>
+        <v>46113</v>
       </c>
       <c r="B611" s="20"/>
       <c r="C611" s="13"/>
@@ -15913,7 +15923,7 @@
     </row>
     <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="40">
-        <v>46204</v>
+        <v>46143</v>
       </c>
       <c r="B612" s="20"/>
       <c r="C612" s="13"/>
@@ -15931,7 +15941,7 @@
     </row>
     <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" s="40">
-        <v>46235</v>
+        <v>46174</v>
       </c>
       <c r="B613" s="20"/>
       <c r="C613" s="13"/>
@@ -15949,7 +15959,7 @@
     </row>
     <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" s="40">
-        <v>46266</v>
+        <v>46204</v>
       </c>
       <c r="B614" s="20"/>
       <c r="C614" s="13"/>
@@ -15967,7 +15977,7 @@
     </row>
     <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615" s="40">
-        <v>46296</v>
+        <v>46235</v>
       </c>
       <c r="B615" s="20"/>
       <c r="C615" s="13"/>
@@ -15985,7 +15995,7 @@
     </row>
     <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" s="40">
-        <v>46327</v>
+        <v>46266</v>
       </c>
       <c r="B616" s="20"/>
       <c r="C616" s="13"/>
@@ -16003,7 +16013,7 @@
     </row>
     <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" s="40">
-        <v>46357</v>
+        <v>46296</v>
       </c>
       <c r="B617" s="20"/>
       <c r="C617" s="13"/>
@@ -16020,7 +16030,9 @@
       <c r="K617" s="20"/>
     </row>
     <row r="618" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A618" s="40"/>
+      <c r="A618" s="40">
+        <v>46327</v>
+      </c>
       <c r="B618" s="20"/>
       <c r="C618" s="13"/>
       <c r="D618" s="39"/>
@@ -16036,7 +16048,9 @@
       <c r="K618" s="20"/>
     </row>
     <row r="619" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A619" s="40"/>
+      <c r="A619" s="40">
+        <v>46357</v>
+      </c>
       <c r="B619" s="20"/>
       <c r="C619" s="13"/>
       <c r="D619" s="39"/>
@@ -16052,20 +16066,52 @@
       <c r="K619" s="20"/>
     </row>
     <row r="620" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A620" s="41"/>
-      <c r="B620" s="15"/>
-      <c r="C620" s="42"/>
-      <c r="D620" s="43"/>
+      <c r="A620" s="40"/>
+      <c r="B620" s="20"/>
+      <c r="C620" s="13"/>
+      <c r="D620" s="39"/>
       <c r="E620" s="9"/>
-      <c r="F620" s="15"/>
-      <c r="G620" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H620" s="43"/>
+      <c r="F620" s="20"/>
+      <c r="G620" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H620" s="39"/>
       <c r="I620" s="9"/>
-      <c r="J620" s="12"/>
-      <c r="K620" s="15"/>
+      <c r="J620" s="11"/>
+      <c r="K620" s="20"/>
+    </row>
+    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A621" s="40"/>
+      <c r="B621" s="20"/>
+      <c r="C621" s="13"/>
+      <c r="D621" s="39"/>
+      <c r="E621" s="9"/>
+      <c r="F621" s="20"/>
+      <c r="G621" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H621" s="39"/>
+      <c r="I621" s="9"/>
+      <c r="J621" s="11"/>
+      <c r="K621" s="20"/>
+    </row>
+    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A622" s="41"/>
+      <c r="B622" s="15"/>
+      <c r="C622" s="42"/>
+      <c r="D622" s="43"/>
+      <c r="E622" s="9"/>
+      <c r="F622" s="15"/>
+      <c r="G622" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H622" s="43"/>
+      <c r="I622" s="9"/>
+      <c r="J622" s="12"/>
+      <c r="K622" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -16179,11 +16225,11 @@
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>4.0000000000000001E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="J3" s="47"/>
       <c r="K3" s="35">
@@ -16232,7 +16278,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>223.06100000000004</v>
+        <v>222.04500000000007</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
